--- a/trunk/TAREAS.xlsx
+++ b/trunk/TAREAS.xlsx
@@ -15,8 +15,61 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Adry</author>
+  </authors>
+  <commentList>
+    <comment ref="B14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>No vi un carajo xq no hacia falta</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DNS: adrianb.servehttp.com
+PASS: 123456</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ya esta averiguado, falta coordinar reunion</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>TP2 Anual: Analisis de Riesgos, Costos desagregados, Impacto Ambiental</t>
   </si>
@@ -33,9 +86,6 @@
     <t>Modelo Lógico</t>
   </si>
   <si>
-    <t>Modelo de Datos</t>
-  </si>
-  <si>
     <t>Definir modelo de comunicación</t>
   </si>
   <si>
@@ -60,9 +110,6 @@
     <t>Programacion: Comunicaciones</t>
   </si>
   <si>
-    <t>Programacion: GUI Web</t>
-  </si>
-  <si>
     <t>Adrian</t>
   </si>
   <si>
@@ -148,13 +195,43 @@
   </si>
   <si>
     <t>Investigar XAMPP-WAMPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pag. Web: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &gt; Imagen del panorama de la central (estatico), refrescandose con ajax o similar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &gt; Historicos de Sensores/Actuadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &gt; Registro de alertas, filtradas por fecha o algo asi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &gt; Opcional si queda tiempo -&gt; para los Admin/Jefes, que hicieron los usuarios</t>
+  </si>
+  <si>
+    <t>Agregar Tabla Alertas (Id, descripcion, sensor en el q se produjo, timestamp)</t>
+  </si>
+  <si>
+    <t>Documentar instalacion de componentes en delphi</t>
+  </si>
+  <si>
+    <t>Modelo de Datos -&gt; Sacar de la BD una vez lista</t>
+  </si>
+  <si>
+    <t>Completo</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +254,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -211,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -450,11 +534,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -505,6 +615,15 @@
     <xf numFmtId="16" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,14 +636,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,13 +750,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>275815</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>152087</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -945,11 +1073,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,90 +1093,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>37</v>
+      <c r="A1" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="17">
         <v>40814</v>
       </c>
-      <c r="F1" s="24"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="18">
         <v>40799</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="18">
         <v>40855</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="19">
         <v>40862</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>38</v>
+        <v>23</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1056,32 +1184,32 @@
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="23"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1089,20 +1217,24 @@
         <v>40733</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="5">
         <v>40733</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1112,54 +1244,62 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="5">
         <v>40737</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>40733</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="5">
         <v>40737</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>40733</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="5">
         <v>40740</v>
       </c>
       <c r="F13" s="4">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1169,30 +1309,32 @@
         <v>40733</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="5">
         <v>40740</v>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>40733</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="5">
@@ -1209,10 +1351,10 @@
         <v>40733</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="5">
@@ -1229,37 +1371,39 @@
         <v>40733</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="5">
         <v>40740</v>
       </c>
       <c r="F17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>40734</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="5">
         <v>40747</v>
       </c>
       <c r="F18" s="4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1269,17 +1413,17 @@
         <v>40733</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="5">
         <v>40754</v>
       </c>
       <c r="F19" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1292,14 +1436,14 @@
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="5">
         <v>40763</v>
       </c>
-      <c r="F20" s="4">
-        <v>0</v>
+      <c r="F20" s="5">
+        <v>40763</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1312,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="5">
@@ -1332,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="5">
@@ -1349,10 +1493,10 @@
         <v>40733</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="5">
@@ -1372,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="5">
@@ -1389,10 +1533,10 @@
         <v>40733</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="5">
@@ -1409,10 +1553,10 @@
         <v>40733</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="5">
@@ -1429,14 +1573,14 @@
         <v>40733</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="5">
-        <v>40785</v>
+        <v>40816</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -1449,10 +1593,10 @@
         <v>40733</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="5">
@@ -1469,14 +1613,14 @@
         <v>40733</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="5">
-        <v>40816</v>
+        <v>40831</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -1485,16 +1629,18 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="A30" s="5">
+        <v>40737</v>
+      </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>18</v>
+        <v>42</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="5">
-        <v>40831</v>
+      <c r="E30" s="30">
+        <v>40785</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -1503,62 +1649,106 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="5">
+        <v>40737</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="28"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="5">
+        <v>40737</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="28"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="5">
+        <v>40737</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="28"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="5">
+        <v>40737</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="29"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="5">
+        <v>40737</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="E35" s="5">
+        <v>40742</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="5">
+        <v>40737</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="E36" s="5">
+        <v>40754</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
@@ -1568,7 +1758,9 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
@@ -1578,7 +1770,9 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
@@ -1588,7 +1782,9 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
@@ -1598,7 +1794,9 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
@@ -1608,7 +1806,9 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
@@ -1618,7 +1818,9 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
@@ -1628,41 +1830,38 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A10:E30">
     <sortCondition ref="E10:E30"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="E30:E34"/>
   </mergeCells>
+  <conditionalFormatting sqref="F10:F19 F21:F43">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/trunk/TAREAS.xlsx
+++ b/trunk/TAREAS.xlsx
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0">
+    <comment ref="B20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>TP2 Anual: Analisis de Riesgos, Costos desagregados, Impacto Ambiental</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Fecha De definición</t>
   </si>
   <si>
-    <t>Programacion: Comunicaciones</t>
-  </si>
-  <si>
     <t>Adrian</t>
   </si>
   <si>
@@ -225,13 +222,19 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>INCOMPLETO</t>
+  </si>
+  <si>
+    <t>Programacion: Definición Comunicaciones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +264,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -295,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -547,24 +557,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -624,6 +621,27 @@
     <xf numFmtId="16" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -635,24 +653,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1076,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,11 +1093,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>35</v>
+      <c r="A1" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -1108,9 +1108,9 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
+      <c r="A2" s="31"/>
       <c r="B2" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1121,9 +1121,9 @@
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1132,13 +1132,13 @@
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32"/>
+      <c r="B4" s="14" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="14" t="s">
-        <v>32</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -1164,19 +1164,19 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>36</v>
+      <c r="I6" s="33" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1184,7 +1184,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="26"/>
+      <c r="I7" s="33"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1197,7 +1197,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -1206,10 +1206,10 @@
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1220,7 +1220,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="5">
@@ -1230,10 +1230,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1244,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="5">
@@ -1254,10 +1254,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1265,10 +1265,10 @@
         <v>40733</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="5">
@@ -1278,10 +1278,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1289,10 +1289,10 @@
         <v>40733</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="5">
@@ -1301,7 +1301,9 @@
       <c r="F13" s="4">
         <v>0.7</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="4">
+        <v>0.7</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1309,10 +1311,10 @@
         <v>40733</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="5">
@@ -1321,9 +1323,11 @@
       <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1331,10 +1335,10 @@
         <v>40733</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="5">
@@ -1343,7 +1347,9 @@
       <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1351,10 +1357,10 @@
         <v>40733</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="5">
@@ -1363,7 +1369,9 @@
       <c r="F16" s="4">
         <v>0</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1371,10 +1379,10 @@
         <v>40733</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="5">
@@ -1383,89 +1391,99 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>40734</v>
+        <v>40737</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="5">
-        <v>40747</v>
+        <v>40742</v>
       </c>
       <c r="F18" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>40733</v>
+        <v>40734</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="5">
-        <v>40754</v>
+        <v>40747</v>
       </c>
       <c r="F19" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>40733</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="5">
-        <v>40763</v>
-      </c>
-      <c r="F20" s="5">
-        <v>40763</v>
+        <v>40754</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.2</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>40733</v>
+        <v>40737</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="5">
-        <v>40763</v>
+        <v>40754</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1473,10 +1491,10 @@
         <v>40733</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="5">
@@ -1493,10 +1511,10 @@
         <v>40733</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="5">
@@ -1505,18 +1523,18 @@
       <c r="F23" s="4">
         <v>0</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>40733</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="5">
@@ -1533,10 +1551,10 @@
         <v>40733</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="5">
@@ -1545,22 +1563,22 @@
       <c r="F25" s="4">
         <v>0</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>40733</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="5">
-        <v>40785</v>
+        <v>40763</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -1573,14 +1591,14 @@
         <v>40733</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="5">
-        <v>40816</v>
+        <v>40763</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -1593,14 +1611,14 @@
         <v>40733</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="5">
-        <v>40816</v>
+        <v>40785</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -1610,17 +1628,17 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>40733</v>
+        <v>40737</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="5">
-        <v>40831</v>
+      <c r="E29" s="28">
+        <v>40785</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -1635,11 +1653,11 @@
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="27" t="s">
-        <v>14</v>
+      <c r="C30" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="30">
+      <c r="E30" s="24">
         <v>40785</v>
       </c>
       <c r="F30" s="4">
@@ -1655,9 +1673,13 @@
       <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="28"/>
+      <c r="C31" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="31"/>
+      <c r="E31" s="24">
+        <v>40785</v>
+      </c>
       <c r="F31" s="4">
         <v>0</v>
       </c>
@@ -1671,9 +1693,13 @@
       <c r="B32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="28"/>
+      <c r="C32" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="31"/>
+      <c r="E32" s="24">
+        <v>40785</v>
+      </c>
       <c r="F32" s="4">
         <v>0</v>
       </c>
@@ -1687,9 +1713,13 @@
       <c r="B33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="28"/>
+      <c r="C33" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="31"/>
+      <c r="E33" s="24">
+        <v>40785</v>
+      </c>
       <c r="F33" s="4">
         <v>0</v>
       </c>
@@ -1698,14 +1728,18 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>40737</v>
+        <v>40733</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="29"/>
+        <v>48</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>27</v>
+      </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="32"/>
+      <c r="E34" s="29">
+        <v>40816</v>
+      </c>
       <c r="F34" s="4">
         <v>0</v>
       </c>
@@ -1714,17 +1748,17 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>40737</v>
+        <v>40733</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="5">
-        <v>40742</v>
+        <v>40816</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -1734,17 +1768,17 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>40737</v>
+        <v>40733</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="5">
-        <v>40754</v>
+        <v>40831</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
@@ -1837,16 +1871,14 @@
       <c r="H43" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A10:E30">
-    <sortCondition ref="E10:E30"/>
+  <sortState ref="A10:H36">
+    <sortCondition ref="E10:E36"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="E30:E34"/>
   </mergeCells>
-  <conditionalFormatting sqref="F10:F19 F21:F43">
+  <conditionalFormatting sqref="F10:F43">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="percent" val="0"/>

--- a/trunk/TAREAS.xlsx
+++ b/trunk/TAREAS.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,12 +1413,14 @@
         <v>40742</v>
       </c>
       <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="5">
+        <v>40762</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">

--- a/trunk/TAREAS.xlsx
+++ b/trunk/TAREAS.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="27315" windowHeight="13350"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -29,7 +29,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>No vi un carajo xq no hacia falta</t>
         </r>
@@ -43,7 +43,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>DNS: adrianb.servehttp.com
 PASS: 123456</t>
@@ -58,7 +58,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ya esta averiguado, falta coordinar reunion</t>
         </r>
@@ -233,8 +233,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,7 +263,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -691,7 +691,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -729,7 +729,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -767,7 +767,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -862,7 +862,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -897,7 +896,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1073,14 +1071,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.28515625" customWidth="1"/>
@@ -1092,7 +1090,7 @@
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="30" t="s">
         <v>34</v>
       </c>
@@ -1107,7 +1105,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="31"/>
       <c r="B2" s="12" t="s">
         <v>28</v>
@@ -1120,7 +1118,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="31"/>
       <c r="B3" s="12" t="s">
         <v>29</v>
@@ -1135,7 +1133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" s="32"/>
       <c r="B4" s="14" t="s">
         <v>31</v>
@@ -1148,7 +1146,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1173,7 +1171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>36</v>
@@ -1186,7 +1184,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="33"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,7 +1210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5">
         <v>40733</v>
       </c>
@@ -1236,7 +1234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="5">
         <v>40733</v>
       </c>
@@ -1260,7 +1258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="5">
         <v>40733</v>
       </c>
@@ -1284,7 +1282,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="5">
         <v>40733</v>
       </c>
@@ -1306,7 +1304,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="5">
         <v>40733</v>
       </c>
@@ -1330,7 +1328,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="5">
         <v>40733</v>
       </c>
@@ -1352,7 +1350,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="5">
         <v>40733</v>
       </c>
@@ -1374,7 +1372,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="5">
         <v>40733</v>
       </c>
@@ -1398,7 +1396,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="5">
         <v>40737</v>
       </c>
@@ -1422,7 +1420,7 @@
         <v>40762</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="5">
         <v>40734</v>
       </c>
@@ -1446,7 +1444,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="5">
         <v>40733</v>
       </c>
@@ -1466,7 +1464,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="5">
         <v>40737</v>
       </c>
@@ -1488,7 +1486,7 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="5">
         <v>40733</v>
       </c>
@@ -1508,7 +1506,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="5">
         <v>40733</v>
       </c>
@@ -1528,7 +1526,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="5">
         <v>40733</v>
       </c>
@@ -1548,7 +1546,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="5">
         <v>40733</v>
       </c>
@@ -1568,7 +1566,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="5">
         <v>40733</v>
       </c>
@@ -1583,12 +1581,12 @@
         <v>40763</v>
       </c>
       <c r="F26" s="4">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="5">
         <v>40733</v>
       </c>
@@ -1608,7 +1606,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="5">
         <v>40733</v>
       </c>
@@ -1628,7 +1626,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="5">
         <v>40737</v>
       </c>
@@ -1648,7 +1646,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="5">
         <v>40737</v>
       </c>
@@ -1668,7 +1666,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="5">
         <v>40737</v>
       </c>
@@ -1688,7 +1686,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="5">
         <v>40737</v>
       </c>
@@ -1708,7 +1706,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="5">
         <v>40737</v>
       </c>
@@ -1728,7 +1726,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="5">
         <v>40733</v>
       </c>
@@ -1748,7 +1746,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="5">
         <v>40733</v>
       </c>
@@ -1768,7 +1766,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="5">
         <v>40733</v>
       </c>
@@ -1788,7 +1786,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
@@ -1800,7 +1798,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
@@ -1812,7 +1810,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
@@ -1824,7 +1822,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
@@ -1836,7 +1834,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="3"/>
@@ -1848,7 +1846,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
@@ -1860,7 +1858,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
@@ -1900,24 +1898,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/TAREAS.xlsx
+++ b/trunk/TAREAS.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="19440" windowHeight="12240"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="19440" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -233,8 +233,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,6 +862,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -896,6 +897,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1071,14 +1073,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.28515625" customWidth="1"/>
@@ -1090,7 +1092,7 @@
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>34</v>
       </c>
@@ -1105,7 +1107,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="12" t="s">
         <v>28</v>
@@ -1118,7 +1120,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="12" t="s">
         <v>29</v>
@@ -1133,7 +1135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32"/>
       <c r="B4" s="14" t="s">
         <v>31</v>
@@ -1146,7 +1148,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1171,7 +1173,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>36</v>
@@ -1184,7 +1186,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="33"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,7 +1212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>40733</v>
       </c>
@@ -1234,7 +1236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>40733</v>
       </c>
@@ -1258,7 +1260,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>40733</v>
       </c>
@@ -1282,7 +1284,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>40733</v>
       </c>
@@ -1297,14 +1299,14 @@
         <v>40740</v>
       </c>
       <c r="F13" s="4">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="G13" s="4">
         <v>0.7</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>40733</v>
       </c>
@@ -1328,7 +1330,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>40733</v>
       </c>
@@ -1350,7 +1352,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>40733</v>
       </c>
@@ -1372,7 +1374,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>40733</v>
       </c>
@@ -1396,7 +1398,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>40737</v>
       </c>
@@ -1420,7 +1422,7 @@
         <v>40762</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>40734</v>
       </c>
@@ -1444,7 +1446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>40733</v>
       </c>
@@ -1464,7 +1466,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>40737</v>
       </c>
@@ -1486,7 +1488,7 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>40733</v>
       </c>
@@ -1506,7 +1508,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>40733</v>
       </c>
@@ -1526,7 +1528,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>40733</v>
       </c>
@@ -1546,7 +1548,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>40733</v>
       </c>
@@ -1566,7 +1568,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>40733</v>
       </c>
@@ -1581,12 +1583,12 @@
         <v>40763</v>
       </c>
       <c r="F26" s="4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>40733</v>
       </c>
@@ -1606,7 +1608,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>40733</v>
       </c>
@@ -1626,7 +1628,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>40737</v>
       </c>
@@ -1646,7 +1648,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>40737</v>
       </c>
@@ -1666,7 +1668,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>40737</v>
       </c>
@@ -1686,7 +1688,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>40737</v>
       </c>
@@ -1706,7 +1708,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>40737</v>
       </c>
@@ -1726,7 +1728,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>40733</v>
       </c>
@@ -1746,7 +1748,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>40733</v>
       </c>
@@ -1766,7 +1768,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>40733</v>
       </c>
@@ -1786,7 +1788,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
@@ -1798,7 +1800,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
@@ -1810,7 +1812,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
@@ -1822,7 +1824,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
@@ -1834,7 +1836,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="3"/>
@@ -1846,7 +1848,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
@@ -1858,7 +1860,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
@@ -1898,24 +1900,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/TAREAS.xlsx
+++ b/trunk/TAREAS.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="19440" windowHeight="11760"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>TP2 Anual: Analisis de Riesgos, Costos desagregados, Impacto Ambiental</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Programacion: Definición Comunicaciones</t>
+  </si>
+  <si>
+    <t>som</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1080,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1302,7 @@
         <v>40740</v>
       </c>
       <c r="F13" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G13" s="4">
         <v>0.7</v>
@@ -1463,7 +1466,9 @@
       <c r="F20" s="4">
         <v>0.2</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1481,11 +1486,9 @@
         <v>40754</v>
       </c>
       <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>51</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G21" s="25"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1503,7 +1506,7 @@
         <v>40763</v>
       </c>
       <c r="F22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1523,7 +1526,7 @@
         <v>40763</v>
       </c>
       <c r="F23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1603,7 +1606,7 @@
         <v>40763</v>
       </c>
       <c r="F27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1623,7 +1626,7 @@
         <v>40785</v>
       </c>
       <c r="F28" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1643,7 +1646,7 @@
         <v>40785</v>
       </c>
       <c r="F29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1663,7 +1666,7 @@
         <v>40785</v>
       </c>
       <c r="F30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -1683,7 +1686,7 @@
         <v>40785</v>
       </c>
       <c r="F31" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -1703,7 +1706,7 @@
         <v>40785</v>
       </c>
       <c r="F32" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -1723,7 +1726,7 @@
         <v>40785</v>
       </c>
       <c r="F33" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>

--- a/trunk/TAREAS.xlsx
+++ b/trunk/TAREAS.xlsx
@@ -1079,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,7 +1726,7 @@
         <v>40785</v>
       </c>
       <c r="F33" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
